--- a/biology/Zoologie/Échenilleur_pourpré/Échenilleur_pourpré.xlsx
+++ b/biology/Zoologie/Échenilleur_pourpré/Échenilleur_pourpré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campephaga quiscalina
-L'Échenilleur pourpré[1] (Campephaga quiscalina) est une espèce d'oiseaux de la famille des Campéphagidae[2].
+L'Échenilleur pourpré (Campephaga quiscalina) est une espèce d'oiseaux de la famille des Campéphagidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description et éléments d'écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un petit oiseau d’une vingtaine de centimètres[3], qui possède un fort dimorphisme sexuel[4]. Les mâles sont tout noir avec des reflets vert bleuté dessus et violet sur les parties inférieures et les côtés de la tête. Il possède parfois une zone orangée à la base du bec[5]. Les femelles ont un dos vert olive à brun, une tête grise, la gorge claire, et des parties inférieures jaune pâle[4]. Le juvénile ressemble à la femelle mais possède en plus des tâches noir effacé et blanches sur les joues, la gorge et la poitrine, le ventre et même les ailes[4]. C’est un oiseau arboricole qui se promène en hauteur dans la canopée, à la recherche d’insectes divers[5].
-L’Échenilleur pourpré pousse quelques tsiiouup appuyés[3]. Il n'est pas particulièrement loquace.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un petit oiseau d’une vingtaine de centimètres, qui possède un fort dimorphisme sexuel. Les mâles sont tout noir avec des reflets vert bleuté dessus et violet sur les parties inférieures et les côtés de la tête. Il possède parfois une zone orangée à la base du bec. Les femelles ont un dos vert olive à brun, une tête grise, la gorge claire, et des parties inférieures jaune pâle. Le juvénile ressemble à la femelle mais possède en plus des tâches noir effacé et blanches sur les joues, la gorge et la poitrine, le ventre et même les ailes. C’est un oiseau arboricole qui se promène en hauteur dans la canopée, à la recherche d’insectes divers.
+L’Échenilleur pourpré pousse quelques tsiiouup appuyés. Il n'est pas particulièrement loquace.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répartie depuis la Guinée, jusqu’au Kenya à l’Est et en Zambie et en Angola au Sud ; elle est forestière, et on la retrouve en hauteur, au niveau de la canopée[4],[5]. Elle se plaît dans diverses déclinaisons de forêt : galerie, tropicale dense, secondaire ou ‘primaire’, de montagne, ou encore en savane arborée. Elle est généralement discrète.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répartie depuis la Guinée, jusqu’au Kenya à l’Est et en Zambie et en Angola au Sud ; elle est forestière, et on la retrouve en hauteur, au niveau de la canopée,. Elle se plaît dans diverses déclinaisons de forêt : galerie, tropicale dense, secondaire ou ‘primaire’, de montagne, ou encore en savane arborée. Elle est généralement discrète.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la base ITIS (2021)[2], il y a trois sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base ITIS (2021), il y a trois sous-espèces :
 Campephaga quiscalina martini Jackson, 1912
 Campephaga quiscalina muenzneri Reichenow, 1915
 Campephaga quiscalina quiscalina Finsch, 1869</t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Statut de Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée comme de préoccupation mineure par l'UICN en 2021 ; même si la population aurait tendance à décroître[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée comme de préoccupation mineure par l'UICN en 2021 ; même si la population aurait tendance à décroître.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_pourpr%C3%A9</t>
+          <t>Échenilleur_pourpré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Campephaga quiscalina Finsch, 1869[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Échenilleur pourpré[1],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Campephaga quiscalina Finsch, 1869.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Échenilleur pourpré,.
 </t>
         </is>
       </c>
